--- a/graphs/STM32F/bubble_sort_no_opt/bubble_sort_no_opt.xlsx
+++ b/graphs/STM32F/bubble_sort_no_opt/bubble_sort_no_opt.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data_RAM code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data_CCM code_FLASH" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="data_RAM code_CCM" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="data_CCM code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data_RAM-code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_CCM-code_FLASH" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_RAM-code_CCM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data_CCM-code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
